--- a/data/profiles/xlsx/bluff/profile 31-2 graph.xlsx
+++ b/data/profiles/xlsx/bluff/profile 31-2 graph.xlsx
@@ -15024,11 +15024,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="41874414"/>
-        <c:axId val="11870285"/>
+        <c:axId val="9869952"/>
+        <c:axId val="30155564"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41874414"/>
+        <c:axId val="9869952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15063,12 +15063,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11870285"/>
+        <c:crossAx val="30155564"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="11870285"/>
+        <c:axId val="30155564"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15112,7 +15112,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41874414"/>
+        <c:crossAx val="9869952"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
